--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N2">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q2">
-        <v>10.44682809783867</v>
+        <v>0.05786695057000001</v>
       </c>
       <c r="R2">
-        <v>94.021452880548</v>
+        <v>0.5208025551300001</v>
       </c>
       <c r="S2">
-        <v>0.09966765618506587</v>
+        <v>0.001463908525920716</v>
       </c>
       <c r="T2">
-        <v>0.09966765618506589</v>
+        <v>0.001463908525920716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P3">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q3">
-        <v>24.85025136928778</v>
+        <v>0.6811917504527779</v>
       </c>
       <c r="R3">
-        <v>223.65226232359</v>
+        <v>6.130725754075001</v>
       </c>
       <c r="S3">
-        <v>0.2370830922449133</v>
+        <v>0.0172326760171748</v>
       </c>
       <c r="T3">
-        <v>0.2370830922449133</v>
+        <v>0.01723267601717479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N4">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O4">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P4">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q4">
-        <v>3.624379732652444</v>
+        <v>0.09669852602944445</v>
       </c>
       <c r="R4">
-        <v>32.619417593872</v>
+        <v>0.870286734265</v>
       </c>
       <c r="S4">
-        <v>0.03457828823208645</v>
+        <v>0.00244626328680015</v>
       </c>
       <c r="T4">
-        <v>0.03457828823208645</v>
+        <v>0.00244626328680015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N5">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q5">
-        <v>11.77020532349667</v>
+        <v>2.378436678309999</v>
       </c>
       <c r="R5">
-        <v>105.93184791147</v>
+        <v>21.40593010479</v>
       </c>
       <c r="S5">
-        <v>0.1122932976807191</v>
+        <v>0.06016929693795951</v>
       </c>
       <c r="T5">
-        <v>0.1122932976807191</v>
+        <v>0.06016929693795951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P6">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q6">
-        <v>27.99821708730278</v>
+        <v>27.99821708730277</v>
       </c>
       <c r="R6">
         <v>251.983953785725</v>
       </c>
       <c r="S6">
-        <v>0.267116166583564</v>
+        <v>0.7082942560641935</v>
       </c>
       <c r="T6">
-        <v>0.267116166583564</v>
+        <v>0.7082942560641934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N7">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O7">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P7">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q7">
-        <v>4.083506804564445</v>
+        <v>3.974484896499444</v>
       </c>
       <c r="R7">
-        <v>36.75156124108</v>
+        <v>35.770364068495</v>
       </c>
       <c r="S7">
-        <v>0.03895857655692724</v>
+        <v>0.1005458602676918</v>
       </c>
       <c r="T7">
-        <v>0.03895857655692724</v>
+        <v>0.1005458602676918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N8">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q8">
-        <v>5.916581422649999</v>
+        <v>0.300647941484</v>
       </c>
       <c r="R8">
-        <v>53.24923280384999</v>
+        <v>2.705831473356</v>
       </c>
       <c r="S8">
-        <v>0.05644697103282754</v>
+        <v>0.007605741800866768</v>
       </c>
       <c r="T8">
-        <v>0.05644697103282755</v>
+        <v>0.007605741800866768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P9">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q9">
-        <v>14.073988221375</v>
+        <v>3.539134091432222</v>
       </c>
       <c r="R9">
-        <v>126.665893992375</v>
+        <v>31.85220682289</v>
       </c>
       <c r="S9">
-        <v>0.1342724706545978</v>
+        <v>0.08953242774659478</v>
       </c>
       <c r="T9">
-        <v>0.1342724706545978</v>
+        <v>0.08953242774659477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N10">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O10">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P10">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q10">
-        <v>2.0526745146</v>
+        <v>0.5023975258575555</v>
       </c>
       <c r="R10">
-        <v>18.4740706314</v>
+        <v>4.521577732718</v>
       </c>
       <c r="S10">
-        <v>0.01958348082929844</v>
+        <v>0.012709569352798</v>
       </c>
       <c r="T10">
-        <v>0.01958348082929844</v>
+        <v>0.012709569352798</v>
       </c>
     </row>
   </sheetData>
